--- a/data/trans_orig/P21D5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Edad-trans_orig.xlsx
@@ -741,16 +741,16 @@
         <v>204840</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>191626</v>
+        <v>189809</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>210781</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.971812640380131</v>
+        <v>0.9718126403801308</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9091252535403903</v>
+        <v>0.9005016660366681</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -762,19 +762,19 @@
         <v>153889</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>142230</v>
+        <v>143166</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>160445</v>
+        <v>160916</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9441907251343339</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8726593426801272</v>
+        <v>0.878398118312418</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9844177951620657</v>
+        <v>0.9873050697950111</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>172</v>
@@ -783,19 +783,19 @@
         <v>358729</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>342447</v>
+        <v>342328</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>368994</v>
+        <v>367046</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9597677969598012</v>
+        <v>0.9597677969598013</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9162056505388305</v>
+        <v>0.9158891054035788</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9872330767253314</v>
+        <v>0.9820210249996237</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19155</v>
+        <v>20972</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02818735961986903</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09087474645960945</v>
+        <v>0.09949833396333158</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>6725</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1897</v>
+        <v>1942</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16857</v>
+        <v>17754</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.04125897803726952</v>
+        <v>0.04125897803726951</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01164106304131171</v>
+        <v>0.01191782165764895</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1034249015875998</v>
+        <v>0.1089285936773065</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -854,19 +854,19 @@
         <v>12666</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3808</v>
+        <v>4734</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28645</v>
+        <v>27965</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03388738424476693</v>
+        <v>0.03388738424476692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.010188061717884</v>
+        <v>0.0126656239243655</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07663815635418979</v>
+        <v>0.07481834671195271</v>
       </c>
     </row>
     <row r="6">
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10624</v>
+        <v>13408</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.01455029682839671</v>
+        <v>0.0145502968283967</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06518652376573247</v>
+        <v>0.08226380924470522</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -920,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11885</v>
+        <v>14542</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.006344818795431794</v>
+        <v>0.006344818795431795</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03179743023640312</v>
+        <v>0.03890622460040911</v>
       </c>
     </row>
     <row r="7">
@@ -1068,19 +1068,19 @@
         <v>215924</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>204229</v>
+        <v>203169</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>222486</v>
+        <v>222211</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9519909921528938</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.900430448321038</v>
+        <v>0.895757078375791</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9809216913805829</v>
+        <v>0.9797114511348654</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>224</v>
@@ -1089,19 +1089,19 @@
         <v>246717</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>241460</v>
+        <v>241613</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>249353</v>
+        <v>249325</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.985472617930191</v>
+        <v>0.9854726179301911</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9644743630697091</v>
+        <v>0.9650838185845401</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.996002410322312</v>
+        <v>0.9958886940857017</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>363</v>
@@ -1110,19 +1110,19 @@
         <v>462640</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>450575</v>
+        <v>448417</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>470166</v>
+        <v>469397</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.9695577038959466</v>
+        <v>0.9695577038959464</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9442739515994677</v>
+        <v>0.9397514893811305</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9853298067524692</v>
+        <v>0.9837178012656685</v>
       </c>
     </row>
     <row r="10">
@@ -1139,19 +1139,19 @@
         <v>9069</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2985</v>
+        <v>3097</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19325</v>
+        <v>21865</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03998509719273766</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01316277831313964</v>
+        <v>0.01365401408784681</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08520293647743285</v>
+        <v>0.09640295007755041</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5873</v>
+        <v>6262</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.006879565323579651</v>
+        <v>0.006879565323579652</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02346069426478964</v>
+        <v>0.02501058724989305</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1181,19 +1181,19 @@
         <v>10791</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4654</v>
+        <v>4955</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22884</v>
+        <v>24806</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02261570959745896</v>
+        <v>0.02261570959745895</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009752818094934551</v>
+        <v>0.01038412250745945</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04795809074992358</v>
+        <v>0.05198553497823764</v>
       </c>
     </row>
     <row r="11">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9936</v>
+        <v>10181</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008023910654368641</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04380594837129662</v>
+        <v>0.04488773769720394</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4921</v>
+        <v>4374</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.00370537285748013</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01965751828100706</v>
+        <v>0.01747213372363</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9943</v>
+        <v>11335</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00575811540493786</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0208383256763478</v>
+        <v>0.02375428883777699</v>
       </c>
     </row>
     <row r="12">
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5021</v>
+        <v>4867</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.003942443888749191</v>
+        <v>0.003942443888749192</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02005383826011033</v>
+        <v>0.01943922146311891</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5466</v>
+        <v>4963</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.002068471101656527</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01145588116116819</v>
+        <v>0.01040002379386863</v>
       </c>
     </row>
     <row r="13">
@@ -1419,19 +1419,19 @@
         <v>242980</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234035</v>
+        <v>234935</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>247937</v>
+        <v>248210</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9622279598693932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9268067033287569</v>
+        <v>0.9303677069699349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9818578573534755</v>
+        <v>0.9829389195417778</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>373</v>
@@ -1440,19 +1440,19 @@
         <v>281034</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>273384</v>
+        <v>273309</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>286451</v>
+        <v>286376</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9474075172293176</v>
+        <v>0.9474075172293174</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9216158503143853</v>
+        <v>0.921365485007792</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.965667838207461</v>
+        <v>0.9654152139599973</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>587</v>
@@ -1461,19 +1461,19 @@
         <v>524014</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>514181</v>
+        <v>513143</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>532413</v>
+        <v>532415</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9542224145989648</v>
+        <v>0.954222414598965</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9363172503225411</v>
+        <v>0.9344268991102341</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9695168479688364</v>
+        <v>0.9695200876314067</v>
       </c>
     </row>
     <row r="15">
@@ -1490,19 +1490,19 @@
         <v>9538</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4581</v>
+        <v>4308</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18483</v>
+        <v>17583</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03777204013060689</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01814214264652442</v>
+        <v>0.01706108045822236</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0731932966712428</v>
+        <v>0.06963229303006506</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -1511,19 +1511,19 @@
         <v>13825</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8953</v>
+        <v>9134</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21131</v>
+        <v>21081</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04660543893788567</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03018118457721257</v>
+        <v>0.03079233141181133</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07123508586467481</v>
+        <v>0.07106878763572889</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>28</v>
@@ -1532,19 +1532,19 @@
         <v>23363</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>15497</v>
+        <v>15040</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>32778</v>
+        <v>33872</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04254356927860909</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02822008346880098</v>
+        <v>0.02738728012856217</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05968794057394364</v>
+        <v>0.06168071634097973</v>
       </c>
     </row>
     <row r="16">
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5340</v>
+        <v>5778</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003256763191421179</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01800331011588976</v>
+        <v>0.01947709949491215</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5162</v>
+        <v>4790</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001759202865742005</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009400745574200892</v>
+        <v>0.008722627318152392</v>
       </c>
     </row>
     <row r="17">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4536</v>
+        <v>3790</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002730280641375578</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0152915892190513</v>
+        <v>0.01277628132631948</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4020</v>
+        <v>4072</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.001474813256683813</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.007319459526179449</v>
+        <v>0.007415065720631856</v>
       </c>
     </row>
     <row r="18">
@@ -1762,19 +1762,19 @@
         <v>289267</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>277103</v>
+        <v>278293</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>298490</v>
+        <v>298110</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9156576241751557</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8771513039006376</v>
+        <v>0.8809196367515086</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9448524464970469</v>
+        <v>0.9436486610332619</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>498</v>
@@ -1783,19 +1783,19 @@
         <v>326067</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>317644</v>
+        <v>318280</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>332566</v>
+        <v>332022</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9429119696311232</v>
+        <v>0.9429119696311231</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9185563211566347</v>
+        <v>0.9203959092435714</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9617064766363512</v>
+        <v>0.9601352963869798</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>770</v>
@@ -1804,19 +1804,19 @@
         <v>615334</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>600350</v>
+        <v>602584</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>626230</v>
+        <v>626870</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9299004600249294</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9072563273232944</v>
+        <v>0.9106329631372606</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9463675369886183</v>
+        <v>0.947334084645083</v>
       </c>
     </row>
     <row r="20">
@@ -1833,19 +1833,19 @@
         <v>21232</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13181</v>
+        <v>13019</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33606</v>
+        <v>32199</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06720928639386108</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0417249632336926</v>
+        <v>0.04121127123689033</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1063765931877297</v>
+        <v>0.1019241338839142</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -1854,19 +1854,19 @@
         <v>14121</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8944</v>
+        <v>9315</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21698</v>
+        <v>20873</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04083531118364282</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02586479003206834</v>
+        <v>0.02693828242376249</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06274451214777733</v>
+        <v>0.06035899746581928</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -1875,19 +1875,19 @@
         <v>35353</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26492</v>
+        <v>24966</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>48955</v>
+        <v>47853</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.05342652282567971</v>
+        <v>0.05342652282567972</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04003477035813643</v>
+        <v>0.03772829213129179</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07398165973100544</v>
+        <v>0.07231566367831412</v>
       </c>
     </row>
     <row r="21">
@@ -1904,19 +1904,19 @@
         <v>4268</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1122</v>
+        <v>1150</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10001</v>
+        <v>9850</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01350941858448407</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003550508351382429</v>
+        <v>0.003641531573232024</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03165758231904497</v>
+        <v>0.03118020289457191</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1925,19 +1925,19 @@
         <v>4253</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1890</v>
+        <v>1832</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8819</v>
+        <v>8469</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01229935248414051</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.005464298314007282</v>
+        <v>0.005298472761362239</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02550386507417917</v>
+        <v>0.02449068350456044</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -1946,19 +1946,19 @@
         <v>8521</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4318</v>
+        <v>4265</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16033</v>
+        <v>14928</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01287705069796066</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0065246669980867</v>
+        <v>0.006445520545226981</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02422974604510683</v>
+        <v>0.02255898086773809</v>
       </c>
     </row>
     <row r="22">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5780</v>
+        <v>4591</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003623670846499162</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01829737835353773</v>
+        <v>0.01453098485701524</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -1999,16 +1999,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4118</v>
+        <v>4125</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.00395336670109361</v>
+        <v>0.003953366701093609</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0119084440065147</v>
+        <v>0.01192979999114101</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2017,19 +2017,19 @@
         <v>2512</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7638</v>
+        <v>6844</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003795966451430353</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001009375911051564</v>
+        <v>0.001015714819348708</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01154299387973883</v>
+        <v>0.01034267393295251</v>
       </c>
     </row>
     <row r="23">
@@ -2121,19 +2121,19 @@
         <v>237832</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>228420</v>
+        <v>228961</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>244909</v>
+        <v>245228</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9236866437761077</v>
+        <v>0.9236866437761075</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8871326116525947</v>
+        <v>0.8892326286351274</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9511714837706088</v>
+        <v>0.9524119181100298</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>370</v>
@@ -2142,19 +2142,19 @@
         <v>228756</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>220614</v>
+        <v>220068</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>235164</v>
+        <v>235648</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9025583013503712</v>
+        <v>0.9025583013503711</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8704351389333922</v>
+        <v>0.8682796108385505</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.927839634826523</v>
+        <v>0.929751507070006</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>626</v>
@@ -2163,19 +2163,19 @@
         <v>466588</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>455488</v>
+        <v>455083</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>475624</v>
+        <v>476919</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9132057626072391</v>
+        <v>0.9132057626072392</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8914815212849094</v>
+        <v>0.8906885008858954</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9308910684693522</v>
+        <v>0.9334260218080859</v>
       </c>
     </row>
     <row r="25">
@@ -2192,19 +2192,19 @@
         <v>15364</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9139</v>
+        <v>8982</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24086</v>
+        <v>23999</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.0596712858919416</v>
+        <v>0.05967128589194159</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0354956661064581</v>
+        <v>0.03488579580370123</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09354566479518432</v>
+        <v>0.09320829348114237</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -2213,19 +2213,19 @@
         <v>20704</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14698</v>
+        <v>14037</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28582</v>
+        <v>27953</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08168777332238468</v>
+        <v>0.08168777332238467</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0579893542445285</v>
+        <v>0.05538297582145471</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1127684565839371</v>
+        <v>0.1102877245382854</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -2234,19 +2234,19 @@
         <v>36068</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27547</v>
+        <v>27211</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45966</v>
+        <v>46782</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.07059273840651643</v>
+        <v>0.07059273840651645</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05391403100613629</v>
+        <v>0.0532571858882599</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08996390729846471</v>
+        <v>0.09156164815953856</v>
       </c>
     </row>
     <row r="26">
@@ -2266,16 +2266,16 @@
         <v>723</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8172</v>
+        <v>7904</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01021735819050525</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002808785250463721</v>
+        <v>0.002809425694553659</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03173803162292283</v>
+        <v>0.03069912595214336</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2284,19 +2284,19 @@
         <v>2031</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5452</v>
+        <v>6044</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00801269102446202</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002373862347565131</v>
+        <v>0.002386556726061831</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02151202508115563</v>
+        <v>0.02384641598018112</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2305,19 +2305,19 @@
         <v>4662</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1824</v>
+        <v>1849</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9265</v>
+        <v>9490</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.009123715626474365</v>
+        <v>0.009123715626474366</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003569198707585308</v>
+        <v>0.003618437039101571</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01813380212217861</v>
+        <v>0.01857337953817145</v>
       </c>
     </row>
     <row r="27">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5885</v>
+        <v>6520</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.006424712141445604</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02285580599325225</v>
+        <v>0.02532159238417655</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -2355,19 +2355,19 @@
         <v>1962</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5374</v>
+        <v>5375</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.007741234302782192</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.002415888370700812</v>
+        <v>0.002398597955253418</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02120128884472904</v>
+        <v>0.02120616326715439</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5</v>
@@ -2376,19 +2376,19 @@
         <v>3616</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1312</v>
+        <v>1319</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>8449</v>
+        <v>8908</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.007077783359769991</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.002568201256572652</v>
+        <v>0.002581107244345292</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01653592527787498</v>
+        <v>0.01743553794119152</v>
       </c>
     </row>
     <row r="28">
@@ -2480,19 +2480,19 @@
         <v>170895</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>166484</v>
+        <v>166076</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>173067</v>
+        <v>173127</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9818580753595424</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9565154891111942</v>
+        <v>0.9541718467797494</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9943326708413521</v>
+        <v>0.9946807000425951</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>345</v>
@@ -2501,19 +2501,19 @@
         <v>182932</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>176454</v>
+        <v>176924</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>187825</v>
+        <v>187948</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9193450106336444</v>
+        <v>0.9193450106336443</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8867874364227101</v>
+        <v>0.8891518113510792</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9439333730036177</v>
+        <v>0.9445500889498886</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>583</v>
@@ -2522,19 +2522,19 @@
         <v>353828</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>346197</v>
+        <v>345657</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>359616</v>
+        <v>359446</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9485128279257329</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9280544744432052</v>
+        <v>0.9266076876450013</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9640283589301528</v>
+        <v>0.9635729499460122</v>
       </c>
     </row>
     <row r="30">
@@ -2551,19 +2551,19 @@
         <v>2232</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6364</v>
+        <v>6883</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01282338868236692</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002845041874308722</v>
+        <v>0.002832263410744603</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03656378382295908</v>
+        <v>0.03954261250999901</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -2572,19 +2572,19 @@
         <v>12459</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8240</v>
+        <v>8257</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18318</v>
+        <v>18115</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.06261589230922937</v>
+        <v>0.06261589230922936</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04141120038495438</v>
+        <v>0.04149856253157197</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09205837463292045</v>
+        <v>0.09103798432383861</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>26</v>
@@ -2593,19 +2593,19 @@
         <v>14691</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>9630</v>
+        <v>9693</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>20839</v>
+        <v>22202</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.0393833303692242</v>
+        <v>0.03938333036922419</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02581438673493206</v>
+        <v>0.02598304196645104</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05586409147390217</v>
+        <v>0.05951728812593172</v>
       </c>
     </row>
     <row r="31">
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5496</v>
+        <v>4603</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.005318535958090684</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03157697073057281</v>
+        <v>0.02644487073788021</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -2643,19 +2643,19 @@
         <v>2036</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5355</v>
+        <v>5468</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01023360727776454</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.003303569014215271</v>
+        <v>0.00331997810747688</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02691186695755726</v>
+        <v>0.02747999328141675</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -2667,16 +2667,16 @@
         <v>694</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7033</v>
+        <v>7316</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00794029622577193</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001859979402772476</v>
+        <v>0.001861511859358523</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01885356157353786</v>
+        <v>0.01961246782648786</v>
       </c>
     </row>
     <row r="32">
@@ -2709,16 +2709,16 @@
         <v>385</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4244</v>
+        <v>4012</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.007805489779361833</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001936024837638988</v>
+        <v>0.001937105684996549</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02132846284645708</v>
+        <v>0.02016361764014687</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -2730,16 +2730,16 @@
         <v>385</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4628</v>
+        <v>4509</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004163545479271055</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001031366572423053</v>
+        <v>0.00103272985588069</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01240727084566528</v>
+        <v>0.01208862002513685</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>126079</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>122672</v>
+        <v>122271</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>128374</v>
+        <v>127992</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.973125080164939</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9468282757090553</v>
+        <v>0.9437319486141683</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9908387528427873</v>
+        <v>0.9878874156875433</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>331</v>
@@ -2852,19 +2852,19 @@
         <v>178695</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>173558</v>
+        <v>173446</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>181980</v>
+        <v>182008</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9599043217018071</v>
+        <v>0.9599043217018073</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9323110381763046</v>
+        <v>0.9317067890035919</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9775532653230373</v>
+        <v>0.9777006284183468</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>517</v>
@@ -2873,19 +2873,19 @@
         <v>304774</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>298776</v>
+        <v>299206</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>309049</v>
+        <v>309056</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9653296746290956</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9463336553074005</v>
+        <v>0.9476951516213172</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.97887120521795</v>
+        <v>0.9788937848544856</v>
       </c>
     </row>
     <row r="35">
@@ -2902,19 +2902,19 @@
         <v>2368</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>577</v>
+        <v>658</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5579</v>
+        <v>5626</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01827502358688756</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.004450299491609436</v>
+        <v>0.005082168627848207</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04306254796694963</v>
+        <v>0.04342132858862674</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -2923,19 +2923,19 @@
         <v>4900</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2233</v>
+        <v>2359</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8966</v>
+        <v>9038</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.02632268607696236</v>
+        <v>0.02632268607696237</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01199344161767595</v>
+        <v>0.01267308827273204</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04816327375165762</v>
+        <v>0.04854736101455552</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -2944,19 +2944,19 @@
         <v>7268</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4110</v>
+        <v>4157</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11772</v>
+        <v>12207</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02302019708814131</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01301842260427007</v>
+        <v>0.01316535856003021</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03728735542299941</v>
+        <v>0.03866329038709462</v>
       </c>
     </row>
     <row r="36">
@@ -2976,16 +2976,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2694</v>
+        <v>2681</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.004078567515612319</v>
+        <v>0.004078567515612318</v>
       </c>
       <c r="H36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02079102640344349</v>
+        <v>0.02069341001052816</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -2994,19 +2994,19 @@
         <v>2564</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>594</v>
+        <v>710</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>7296</v>
+        <v>6982</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01377299222123045</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003189020641662726</v>
+        <v>0.003816077817325737</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03919478212297416</v>
+        <v>0.03750321948867973</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5</v>
@@ -3015,19 +3015,19 @@
         <v>3092</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1046</v>
+        <v>1007</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7588</v>
+        <v>7521</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.009794727615483905</v>
+        <v>0.009794727615483906</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.003313709010790377</v>
+        <v>0.00318840954932981</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02403368300143964</v>
+        <v>0.02382281032240354</v>
       </c>
     </row>
     <row r="37">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4260</v>
+        <v>3154</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.004521328732561106</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03288098757191676</v>
+        <v>0.02434567386646371</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -3081,16 +3081,16 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2952</v>
+        <v>2942</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.001855400667279291</v>
+        <v>0.001855400667279292</v>
       </c>
       <c r="V37" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.009351514938091599</v>
+        <v>0.009318833301880802</v>
       </c>
     </row>
     <row r="38">
@@ -3182,19 +3182,19 @@
         <v>1487816</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1463970</v>
+        <v>1466828</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1505820</v>
+        <v>1506695</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9493962166321833</v>
+        <v>0.9493962166321831</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9341795480767182</v>
+        <v>0.9360034379646258</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9608849672708467</v>
+        <v>0.9614431807287487</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2230</v>
@@ -3203,19 +3203,19 @@
         <v>1598089</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1579834</v>
+        <v>1580792</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1612845</v>
+        <v>1613556</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.943173610133794</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.9323997057513623</v>
+        <v>0.9329650227941105</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.9518822594070121</v>
+        <v>0.9523024248445826</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3618</v>
@@ -3224,19 +3224,19 @@
         <v>3085905</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>3057788</v>
+        <v>3059640</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>3110196</v>
+        <v>3111289</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.9461635171762858</v>
+        <v>0.9461635171762857</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.9375428047940734</v>
+        <v>0.9381106590982059</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.9536114113421784</v>
+        <v>0.9539465622860698</v>
       </c>
     </row>
     <row r="40">
@@ -3253,19 +3253,19 @@
         <v>65745</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>49597</v>
+        <v>48395</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>87614</v>
+        <v>84799</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.04195261358963518</v>
+        <v>0.04195261358963517</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03164858053917017</v>
+        <v>0.03088125797033161</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05590780690167929</v>
+        <v>0.05411111816507194</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>112</v>
@@ -3274,19 +3274,19 @@
         <v>74456</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>61785</v>
+        <v>60535</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>92251</v>
+        <v>89761</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04394334420853392</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0364648750208186</v>
+        <v>0.03572725255363318</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05444574270886283</v>
+        <v>0.05297567544604297</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>169</v>
@@ -3295,19 +3295,19 @@
         <v>140201</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>118193</v>
+        <v>119130</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>166203</v>
+        <v>164842</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04298681586326732</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0362389334357859</v>
+        <v>0.03652618763226017</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05095918704499054</v>
+        <v>0.05054181141426093</v>
       </c>
     </row>
     <row r="41">
@@ -3324,19 +3324,19 @@
         <v>10173</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4846</v>
+        <v>4628</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>18433</v>
+        <v>17903</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.006491289344753013</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.003092576828553447</v>
+        <v>0.002953324881042563</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01176241168322443</v>
+        <v>0.01142386024839268</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>20</v>
@@ -3345,19 +3345,19 @@
         <v>15150</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>9167</v>
+        <v>9192</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>24650</v>
+        <v>25305</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.00894106512192267</v>
+        <v>0.008941065121922668</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00541004162505179</v>
+        <v>0.005424858034892966</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01454794232998139</v>
+        <v>0.01493458043350116</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>30</v>
@@ -3366,19 +3366,19 @@
         <v>25322</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>16958</v>
+        <v>17648</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>38317</v>
+        <v>37998</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.007763969663519278</v>
+        <v>0.007763969663519279</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005199482466279081</v>
+        <v>0.005411155642742999</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01174824704253014</v>
+        <v>0.01165045516950822</v>
       </c>
     </row>
     <row r="42">
@@ -3395,19 +3395,19 @@
         <v>3385</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1013</v>
+        <v>816</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8730</v>
+        <v>8340</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.002159880433428598</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0006466689991591903</v>
+        <v>0.000520521535396228</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.005570585622283544</v>
+        <v>0.005322143294216469</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>10</v>
@@ -3416,19 +3416,19 @@
         <v>6679</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3284</v>
+        <v>3341</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>11681</v>
+        <v>12385</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.003941980535749518</v>
+        <v>0.003941980535749517</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.001937927992953743</v>
+        <v>0.001971867472932176</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.006893787165249727</v>
+        <v>0.00730965282363579</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>14</v>
@@ -3437,19 +3437,19 @@
         <v>10064</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5643</v>
+        <v>6105</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>17330</v>
+        <v>17296</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.003085697296927659</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.00173015162276338</v>
+        <v>0.001871902665510425</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.005313505593969582</v>
+        <v>0.005303244363669046</v>
       </c>
     </row>
     <row r="43">
